--- a/backend/uploads/employees.xlsx
+++ b/backend/uploads/employees.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\CSVmaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB989F0-C0D7-4537-A97C-6090ED2062DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5619BC41-80BD-4CA7-964C-E4A491E7BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="150" windowWidth="18990" windowHeight="9930"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
@@ -22,157 +22,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>billability</t>
+  </si>
+  <si>
+    <t>Aaditya</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Aarya</t>
+  </si>
+  <si>
+    <t>Abhay</t>
+  </si>
+  <si>
+    <t>Abhijeet</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Abhinandan</t>
+  </si>
+  <si>
+    <t>Abhinay</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Abimanyu</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Akhil</t>
+  </si>
+  <si>
+    <t>Akshat</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Avi</t>
+  </si>
+  <si>
+    <t>Balaraam</t>
+  </si>
+  <si>
+    <t>Bharat</t>
+  </si>
+  <si>
+    <t>Bhaskar</t>
+  </si>
+  <si>
+    <t>Bhaumik</t>
+  </si>
+  <si>
+    <t>Bijay</t>
+  </si>
+  <si>
+    <t>Brijesh</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Chandan</t>
+  </si>
+  <si>
+    <t>Chetan</t>
+  </si>
+  <si>
+    <t>Chirag</t>
+  </si>
+  <si>
+    <t>Chiranjeeve</t>
+  </si>
+  <si>
+    <t>Daksh</t>
+  </si>
+  <si>
+    <t>Daman</t>
+  </si>
+  <si>
+    <t>Depen</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Dhruv</t>
+  </si>
+  <si>
+    <t>Divyanshu</t>
+  </si>
+  <si>
+    <t>Ekambar</t>
+  </si>
+  <si>
+    <t>Ekansh</t>
+  </si>
+  <si>
+    <t>Ekaraj</t>
+  </si>
+  <si>
+    <t>Eklavya</t>
+  </si>
+  <si>
+    <t>Elilarasan</t>
+  </si>
+  <si>
+    <t>Falak</t>
+  </si>
+  <si>
+    <t>Gagan</t>
+  </si>
+  <si>
+    <t>Gajendra</t>
+  </si>
+  <si>
     <t>empId</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>projectId</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>billability</t>
-  </si>
-  <si>
-    <t>Aaditya</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Aarya</t>
-  </si>
-  <si>
-    <t>Abhay</t>
-  </si>
-  <si>
-    <t>Abhijeet</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Abhinandan</t>
-  </si>
-  <si>
-    <t>Abhinay</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Abhishek</t>
-  </si>
-  <si>
-    <t>Abimanyu</t>
-  </si>
-  <si>
-    <t>Aditya</t>
-  </si>
-  <si>
-    <t>Akhil</t>
-  </si>
-  <si>
-    <t>Akshat</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Anil</t>
-  </si>
-  <si>
-    <t>Avi</t>
-  </si>
-  <si>
-    <t>Balaraam</t>
-  </si>
-  <si>
-    <t>Bharat</t>
-  </si>
-  <si>
-    <t>Bhaskar</t>
-  </si>
-  <si>
-    <t>Bhaumik</t>
-  </si>
-  <si>
-    <t>Bijay</t>
-  </si>
-  <si>
-    <t>Brijesh</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Chandan</t>
-  </si>
-  <si>
-    <t>Chetan</t>
-  </si>
-  <si>
-    <t>Chirag</t>
-  </si>
-  <si>
-    <t>Chiranjeeve</t>
-  </si>
-  <si>
-    <t>Daksh</t>
-  </si>
-  <si>
-    <t>Daman</t>
-  </si>
-  <si>
-    <t>Depen</t>
-  </si>
-  <si>
-    <t>Dev</t>
-  </si>
-  <si>
-    <t>Dhruv</t>
-  </si>
-  <si>
-    <t>Divyanshu</t>
-  </si>
-  <si>
-    <t>Ekambar</t>
-  </si>
-  <si>
-    <t>Ekansh</t>
-  </si>
-  <si>
-    <t>Ekaraj</t>
-  </si>
-  <si>
-    <t>Eklavya</t>
-  </si>
-  <si>
-    <t>Elilarasan</t>
-  </si>
-  <si>
-    <t>Falak</t>
-  </si>
-  <si>
-    <t>Gagan</t>
-  </si>
-  <si>
-    <t>Gajendra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1015,19 +1015,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1035,16 +1035,16 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>4823</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1052,16 +1052,16 @@
         <v>2000</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>5830</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1069,16 +1069,16 @@
         <v>3000</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>5830</v>
       </c>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1086,16 +1086,16 @@
         <v>4000</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>5830</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1103,16 +1103,16 @@
         <v>5000</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>3561</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1120,16 +1120,16 @@
         <v>6000</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>5830</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1137,16 +1137,16 @@
         <v>7000</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>2319</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1154,16 +1154,16 @@
         <v>8000</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>3561</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1171,16 +1171,16 @@
         <v>9000</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>9176</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1188,16 +1188,16 @@
         <v>1000</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1247</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1205,16 +1205,16 @@
         <v>1100</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>1247</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1222,16 +1222,16 @@
         <v>1200</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>3561</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1239,16 +1239,16 @@
         <v>1300</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>6908</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1256,16 +1256,16 @@
         <v>1400</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>1247</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1273,16 +1273,16 @@
         <v>1500</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>3561</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1290,16 +1290,16 @@
         <v>1600</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>1247</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1307,16 +1307,16 @@
         <v>1700</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>9176</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1324,16 +1324,16 @@
         <v>1800</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>1247</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1341,16 +1341,16 @@
         <v>1900</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>1247</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1358,16 +1358,16 @@
         <v>2000</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>6908</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1375,16 +1375,16 @@
         <v>2100</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>3561</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1392,16 +1392,16 @@
         <v>2200</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>4823</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1409,16 +1409,16 @@
         <v>2300</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>2319</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1426,16 +1426,16 @@
         <v>2400</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>3561</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1443,16 +1443,16 @@
         <v>2500</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>5830</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1460,16 +1460,16 @@
         <v>2600</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>3561</v>
       </c>
       <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
         <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1477,16 +1477,16 @@
         <v>2700</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>5830</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1494,16 +1494,16 @@
         <v>2800</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>2319</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1511,16 +1511,16 @@
         <v>2900</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>2319</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1528,16 +1528,16 @@
         <v>3000</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>3561</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1545,16 +1545,16 @@
         <v>3100</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>3561</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1562,16 +1562,16 @@
         <v>3200</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>1247</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1579,16 +1579,16 @@
         <v>3300</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>1247</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1596,16 +1596,16 @@
         <v>3400</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>9176</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1613,16 +1613,16 @@
         <v>3500</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>1247</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1630,16 +1630,16 @@
         <v>3600</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>2319</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1647,16 +1647,16 @@
         <v>3700</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>2319</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/employees.xlsx
+++ b/backend/uploads/employees.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\CSVmaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5619BC41-80BD-4CA7-964C-E4A491E7BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB989F0-C0D7-4537-A97C-6090ED2062DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="150" windowWidth="18990" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
+    <t>empId</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -164,15 +167,12 @@
   </si>
   <si>
     <t>Gajendra</t>
-  </si>
-  <si>
-    <t>empId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1015,19 +1015,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1035,16 +1035,16 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4823</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1052,16 +1052,16 @@
         <v>2000</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>5830</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1069,16 +1069,16 @@
         <v>3000</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>5830</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1086,16 +1086,16 @@
         <v>4000</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>5830</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1103,16 +1103,16 @@
         <v>5000</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>3561</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1120,16 +1120,16 @@
         <v>6000</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>5830</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1137,16 +1137,16 @@
         <v>7000</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2319</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1154,16 +1154,16 @@
         <v>8000</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>3561</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1171,16 +1171,16 @@
         <v>9000</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>9176</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1188,16 +1188,16 @@
         <v>1000</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>1247</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1205,16 +1205,16 @@
         <v>1100</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>1247</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1222,16 +1222,16 @@
         <v>1200</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>3561</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1239,16 +1239,16 @@
         <v>1300</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>6908</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1256,16 +1256,16 @@
         <v>1400</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>1247</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1273,16 +1273,16 @@
         <v>1500</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>3561</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1290,16 +1290,16 @@
         <v>1600</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>1247</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1307,16 +1307,16 @@
         <v>1700</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>9176</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1324,16 +1324,16 @@
         <v>1800</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>1247</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1341,16 +1341,16 @@
         <v>1900</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>1247</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1358,16 +1358,16 @@
         <v>2000</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>6908</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1375,16 +1375,16 @@
         <v>2100</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>3561</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1392,16 +1392,16 @@
         <v>2200</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>4823</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1409,16 +1409,16 @@
         <v>2300</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>2319</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1426,16 +1426,16 @@
         <v>2400</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>3561</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1443,16 +1443,16 @@
         <v>2500</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>5830</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1460,16 +1460,16 @@
         <v>2600</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>3561</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1477,16 +1477,16 @@
         <v>2700</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>5830</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1494,16 +1494,16 @@
         <v>2800</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>2319</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1511,16 +1511,16 @@
         <v>2900</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>2319</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1528,16 +1528,16 @@
         <v>3000</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>3561</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1545,16 +1545,16 @@
         <v>3100</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>3561</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1562,16 +1562,16 @@
         <v>3200</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>1247</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1579,16 +1579,16 @@
         <v>3300</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>1247</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1596,16 +1596,16 @@
         <v>3400</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>9176</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1613,16 +1613,16 @@
         <v>3500</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>1247</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1630,16 +1630,16 @@
         <v>3600</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <v>2319</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1647,16 +1647,16 @@
         <v>3700</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>2319</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/employees.xlsx
+++ b/backend/uploads/employees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\CSVmaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2136370\MERN_Projects\ExcelScrapper\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5619BC41-80BD-4CA7-964C-E4A491E7BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79115B76-C9F1-4852-B63C-1135D2905D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -167,6 +167,60 @@
   </si>
   <si>
     <t>empId</t>
+  </si>
+  <si>
+    <t>isOnsite</t>
+  </si>
+  <si>
+    <t>managerName</t>
+  </si>
+  <si>
+    <t>availableHours</t>
+  </si>
+  <si>
+    <t>billedHours</t>
+  </si>
+  <si>
+    <t>utilizationPercentage</t>
+  </si>
+  <si>
+    <t>utilizationRange</t>
+  </si>
+  <si>
+    <t>billedFTE</t>
+  </si>
+  <si>
+    <t>totalFTE</t>
+  </si>
+  <si>
+    <t>unbilledFTE</t>
+  </si>
+  <si>
+    <t>Onsite</t>
+  </si>
+  <si>
+    <t>Offshore</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>&gt;=95%</t>
+  </si>
+  <si>
+    <t>50%-74%</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Apple</t>
   </si>
 </sst>
 </file>
@@ -1007,13 +1061,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1029,8 +1085,38 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1046,8 +1132,38 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>64</v>
+      </c>
+      <c r="J2">
+        <v>0.7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0.3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -1063,8 +1179,38 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>64</v>
+      </c>
+      <c r="J3">
+        <v>0.7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3">
+        <v>0.7</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0.3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -1080,8 +1226,38 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>64</v>
+      </c>
+      <c r="J4">
+        <v>0.7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4">
+        <v>0.7</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0.3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -1097,8 +1273,38 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>64</v>
+      </c>
+      <c r="J5">
+        <v>0.7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5">
+        <v>0.7</v>
+      </c>
+      <c r="M5">
+        <v>0.8</v>
+      </c>
+      <c r="N5">
+        <v>0.1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -1114,8 +1320,38 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>64</v>
+      </c>
+      <c r="J6">
+        <v>0.7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6">
+        <v>0.7</v>
+      </c>
+      <c r="M6">
+        <v>0.8</v>
+      </c>
+      <c r="N6">
+        <v>0.1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6000</v>
       </c>
@@ -1131,8 +1367,38 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>64</v>
+      </c>
+      <c r="J7">
+        <v>0.7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7">
+        <v>0.7</v>
+      </c>
+      <c r="M7">
+        <v>0.8</v>
+      </c>
+      <c r="N7">
+        <v>0.1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7000</v>
       </c>
@@ -1148,8 +1414,38 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
+      </c>
+      <c r="J8">
+        <v>0.7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8">
+        <v>0.7</v>
+      </c>
+      <c r="M8">
+        <v>0.8</v>
+      </c>
+      <c r="N8">
+        <v>0.1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8000</v>
       </c>
@@ -1165,8 +1461,38 @@
       <c r="E9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <v>0.7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7</v>
+      </c>
+      <c r="N9">
+        <v>0.3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9000</v>
       </c>
@@ -1182,8 +1508,38 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>64</v>
+      </c>
+      <c r="J10">
+        <v>0.7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7</v>
+      </c>
+      <c r="N10">
+        <v>0.3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -1199,8 +1555,38 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>64</v>
+      </c>
+      <c r="J11">
+        <v>0.7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7</v>
+      </c>
+      <c r="N11">
+        <v>0.3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -1216,8 +1602,38 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>64</v>
+      </c>
+      <c r="J12">
+        <v>0.7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7</v>
+      </c>
+      <c r="N12">
+        <v>0.3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -1233,8 +1649,38 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>64</v>
+      </c>
+      <c r="J13">
+        <v>0.7</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7</v>
+      </c>
+      <c r="N13">
+        <v>0.3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -1250,8 +1696,38 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>64</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7</v>
+      </c>
+      <c r="N14">
+        <v>0.3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -1267,8 +1743,38 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>37</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6</v>
+      </c>
+      <c r="N15">
+        <v>0.4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -1284,8 +1790,38 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>37</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6</v>
+      </c>
+      <c r="N16">
+        <v>0.4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -1301,8 +1837,38 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>37</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6</v>
+      </c>
+      <c r="N17">
+        <v>0.4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -1318,8 +1884,38 @@
       <c r="E18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>37</v>
+      </c>
+      <c r="J18">
+        <v>0.8</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6</v>
+      </c>
+      <c r="N18">
+        <v>0.4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -1335,8 +1931,38 @@
       <c r="E19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>37</v>
+      </c>
+      <c r="J19">
+        <v>0.8</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6</v>
+      </c>
+      <c r="N19">
+        <v>0.4</v>
+      </c>
+      <c r="O19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -1352,8 +1978,38 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <v>0.8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6</v>
+      </c>
+      <c r="N20">
+        <v>0.4</v>
+      </c>
+      <c r="O20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -1369,8 +2025,38 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <v>0.8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6</v>
+      </c>
+      <c r="N21">
+        <v>0.4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -1386,8 +2072,38 @@
       <c r="E22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22">
+        <v>158.6</v>
+      </c>
+      <c r="I22">
+        <v>37</v>
+      </c>
+      <c r="J22">
+        <v>0.8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.6</v>
+      </c>
+      <c r="N22">
+        <v>0.4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -1403,8 +2119,38 @@
       <c r="E23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23">
+        <v>158.6</v>
+      </c>
+      <c r="I23">
+        <v>37</v>
+      </c>
+      <c r="J23">
+        <v>0.8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6</v>
+      </c>
+      <c r="N23">
+        <v>0.4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -1420,8 +2166,38 @@
       <c r="E24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>158.6</v>
+      </c>
+      <c r="I24">
+        <v>37</v>
+      </c>
+      <c r="J24">
+        <v>0.8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6</v>
+      </c>
+      <c r="N24">
+        <v>0.4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -1437,8 +2213,38 @@
       <c r="E25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <v>158.6</v>
+      </c>
+      <c r="I25">
+        <v>37</v>
+      </c>
+      <c r="J25">
+        <v>0.8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6</v>
+      </c>
+      <c r="N25">
+        <v>0.4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -1454,8 +2260,38 @@
       <c r="E26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26">
+        <v>158.6</v>
+      </c>
+      <c r="I26">
+        <v>37</v>
+      </c>
+      <c r="J26">
+        <v>0.8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.6</v>
+      </c>
+      <c r="N26">
+        <v>0.4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -1471,8 +2307,38 @@
       <c r="E27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27">
+        <v>158.6</v>
+      </c>
+      <c r="I27">
+        <v>37</v>
+      </c>
+      <c r="J27">
+        <v>0.8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27">
+        <v>0.9</v>
+      </c>
+      <c r="M27">
+        <v>0.8</v>
+      </c>
+      <c r="N27">
+        <v>0.1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -1488,8 +2354,38 @@
       <c r="E28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <v>158.6</v>
+      </c>
+      <c r="I28">
+        <v>37</v>
+      </c>
+      <c r="J28">
+        <v>0.8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28">
+        <v>0.9</v>
+      </c>
+      <c r="M28">
+        <v>0.8</v>
+      </c>
+      <c r="N28">
+        <v>0.1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -1505,8 +2401,38 @@
       <c r="E29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>158.6</v>
+      </c>
+      <c r="I29">
+        <v>37</v>
+      </c>
+      <c r="J29">
+        <v>0.8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29">
+        <v>0.9</v>
+      </c>
+      <c r="M29">
+        <v>0.8</v>
+      </c>
+      <c r="N29">
+        <v>0.1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -1522,8 +2448,38 @@
       <c r="E30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30">
+        <v>158.6</v>
+      </c>
+      <c r="I30">
+        <v>37</v>
+      </c>
+      <c r="J30">
+        <v>0.8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30">
+        <v>0.9</v>
+      </c>
+      <c r="M30">
+        <v>0.8</v>
+      </c>
+      <c r="N30">
+        <v>0.1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -1539,8 +2495,38 @@
       <c r="E31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31">
+        <v>158.6</v>
+      </c>
+      <c r="I31">
+        <v>56.8</v>
+      </c>
+      <c r="J31">
+        <v>0.8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31">
+        <v>0.9</v>
+      </c>
+      <c r="M31">
+        <v>0.8</v>
+      </c>
+      <c r="N31">
+        <v>0.1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -1556,8 +2542,38 @@
       <c r="E32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32">
+        <v>158.6</v>
+      </c>
+      <c r="I32">
+        <v>56.8</v>
+      </c>
+      <c r="J32">
+        <v>0.8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32">
+        <v>0.9</v>
+      </c>
+      <c r="M32">
+        <v>0.8</v>
+      </c>
+      <c r="N32">
+        <v>0.1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -1573,8 +2589,38 @@
       <c r="E33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33">
+        <v>158.6</v>
+      </c>
+      <c r="I33">
+        <v>56.8</v>
+      </c>
+      <c r="J33">
+        <v>0.8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33">
+        <v>0.9</v>
+      </c>
+      <c r="M33">
+        <v>0.8</v>
+      </c>
+      <c r="N33">
+        <v>0.1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -1590,8 +2636,38 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34">
+        <v>158.6</v>
+      </c>
+      <c r="I34">
+        <v>56.8</v>
+      </c>
+      <c r="J34">
+        <v>0.8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34">
+        <v>0.9</v>
+      </c>
+      <c r="M34">
+        <v>0.8</v>
+      </c>
+      <c r="N34">
+        <v>0.1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -1607,8 +2683,38 @@
       <c r="E35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35">
+        <v>158.6</v>
+      </c>
+      <c r="I35">
+        <v>56.8</v>
+      </c>
+      <c r="J35">
+        <v>0.8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>61</v>
+      </c>
+      <c r="L35">
+        <v>0.9</v>
+      </c>
+      <c r="M35">
+        <v>0.8</v>
+      </c>
+      <c r="N35">
+        <v>0.1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -1624,8 +2730,38 @@
       <c r="E36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36">
+        <v>158.6</v>
+      </c>
+      <c r="I36">
+        <v>56.8</v>
+      </c>
+      <c r="J36">
+        <v>0.8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36">
+        <v>0.9</v>
+      </c>
+      <c r="M36">
+        <v>0.8</v>
+      </c>
+      <c r="N36">
+        <v>0.1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -1641,8 +2777,38 @@
       <c r="E37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37">
+        <v>158.6</v>
+      </c>
+      <c r="I37">
+        <v>56.8</v>
+      </c>
+      <c r="J37">
+        <v>0.8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>61</v>
+      </c>
+      <c r="L37">
+        <v>0.9</v>
+      </c>
+      <c r="M37">
+        <v>0.8</v>
+      </c>
+      <c r="N37">
+        <v>0.1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -1658,8 +2824,39 @@
       <c r="E38" t="s">
         <v>6</v>
       </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38">
+        <v>158.6</v>
+      </c>
+      <c r="I38">
+        <v>56.8</v>
+      </c>
+      <c r="J38">
+        <v>0.8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38">
+        <v>0.9</v>
+      </c>
+      <c r="M38">
+        <v>0.8</v>
+      </c>
+      <c r="N38">
+        <v>0.1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>